--- a/biology/Botanique/Arbre_de_Diane_(biologie)/Arbre_de_Diane_(biologie).xlsx
+++ b/biology/Botanique/Arbre_de_Diane_(biologie)/Arbre_de_Diane_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'arbre de Diane est un platane historique qui se trouve dans le parc de Diane aux Clayes-sous-Bois, dans le département français des Yvelines.
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre de Diane est appelé ainsi car il aurait été planté vers 1556 par la favorite d'Henri II de France, Diane de Poitiers[1],[2].
-Il est haut de 31 mètres, a une circonférence supérieure à 8 mètres, et une envergure de 43 mètres. Certaines de ses branches plongent dans le sol par marcottage naturel, créent des racines qui donnent naissance à de nouvelles boutures. Les racines captent l'humidité d'un étang situé à proximité[2].
-Cet arbre a reçu en juillet 2000 le label « arbre remarquable de France » attribué par l'association A.R.B.R.E.S. (Arbres remarquables, bilan, recherches, études et sauvegarde)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre de Diane est appelé ainsi car il aurait été planté vers 1556 par la favorite d'Henri II de France, Diane de Poitiers,.
+Il est haut de 31 mètres, a une circonférence supérieure à 8 mètres, et une envergure de 43 mètres. Certaines de ses branches plongent dans le sol par marcottage naturel, créent des racines qui donnent naissance à de nouvelles boutures. Les racines captent l'humidité d'un étang situé à proximité.
+Cet arbre a reçu en juillet 2000 le label « arbre remarquable de France » attribué par l'association A.R.B.R.E.S. (Arbres remarquables, bilan, recherches, études et sauvegarde).
 </t>
         </is>
       </c>
